--- a/Data/EC/NIT-9004337397.xlsx
+++ b/Data/EC/NIT-9004337397.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D3D444F-9458-4562-B80F-E319D43BCA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC50647-8E93-4D6C-AB47-5B171C525DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2AA995E1-2BC3-409A-AD71-784FABA2073A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24A4B5D-A9C5-47B4-9A3F-062C963AC7BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="85">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,157 +65,199 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73577529</t>
+  </si>
+  <si>
+    <t>DAIVER JAVIER ARROYO BUENDIA</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1143359001</t>
+  </si>
+  <si>
+    <t>LENYS PAOLA MARTINEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>45561767</t>
+  </si>
+  <si>
+    <t>CARMENZA DURANGO FUENTES</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>73163158</t>
+  </si>
+  <si>
+    <t>ROGELIO CONTRERAS LUNA</t>
+  </si>
+  <si>
+    <t>1050958200</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO SANCHEZ MONTES</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1143376797</t>
+  </si>
+  <si>
+    <t>EMIRO RAFAEL LOPEZ LARA</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1050035791</t>
+  </si>
+  <si>
+    <t>YEIMY KATERINE CHAMORRO OLIVERA</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1128048855</t>
+  </si>
+  <si>
+    <t>OLGA PATRICIA MATUTE PICAZA</t>
+  </si>
+  <si>
     <t>1065656742</t>
   </si>
   <si>
     <t>JEAN CARLOS OSPINA ARRIETA</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1143359001</t>
-  </si>
-  <si>
-    <t>LENYS PAOLA MARTINEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>1050958200</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO SANCHEZ MONTES</t>
-  </si>
-  <si>
-    <t>45561767</t>
-  </si>
-  <si>
-    <t>CARMENZA DURANGO FUENTES</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
+    <t>73133039</t>
+  </si>
+  <si>
+    <t>HERVES RUBEN OCHOA BUELVAS</t>
+  </si>
+  <si>
+    <t>9148611</t>
+  </si>
+  <si>
+    <t>GUSTAVO JOSE ROMERO VILLAMIL</t>
   </si>
   <si>
     <t>1143375094</t>
   </si>
   <si>
     <t>JESUS DAVID VILLAMIL ESCOBAR</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -629,7 +671,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A100D4DF-C492-232F-852B-00C222403375}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC86050-8026-4DB1-05B1-3210CCD22190}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -980,8 +1022,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D393CD50-924C-459A-890C-9869F6395044}">
-  <dimension ref="B2:J106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BADD15C-7FDC-4134-A4E0-857565CF3A9F}">
+  <dimension ref="B2:J161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -992,7 +1034,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1005,7 +1047,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1050,7 +1092,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1082,12 +1124,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2444585</v>
+        <v>4075942</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1098,14 +1140,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5">
         <v>41</v>
@@ -1135,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1158,7 +1200,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1172,16 +1214,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1195,16 +1237,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>25774</v>
+        <v>28019</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1218,16 +1260,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>28019</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1241,19 +1283,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>25774</v>
+        <v>24999</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1270,13 +1312,13 @@
         <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
-        <v>28019</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
-        <v>700455</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,19 +1352,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>37164</v>
       </c>
       <c r="G23" s="18">
-        <v>929110</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1333,19 +1375,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
-        <v>25774</v>
+        <v>37164</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,19 +1398,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>28019</v>
+        <v>23607</v>
       </c>
       <c r="G25" s="18">
-        <v>700455</v>
+        <v>737717</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,19 +1421,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F26" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>689455</v>
+        <v>737717</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1402,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F27" s="18">
-        <v>37164</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>929110</v>
+        <v>737717</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1425,13 +1467,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>27578</v>
@@ -1448,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1471,19 +1513,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1494,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>27578</v>
@@ -1517,13 +1559,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>27578</v>
@@ -1540,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1563,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>27578</v>
@@ -1586,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1609,13 +1651,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
@@ -1632,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1655,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F38" s="18">
-        <v>25774</v>
+        <v>26441</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1678,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F39" s="18">
-        <v>27578</v>
+        <v>33052</v>
       </c>
       <c r="G39" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1701,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F40" s="18">
-        <v>27578</v>
+        <v>33052</v>
       </c>
       <c r="G40" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1724,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F41" s="18">
-        <v>25774</v>
+        <v>33052</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1747,19 +1789,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F42" s="18">
-        <v>27578</v>
+        <v>33052</v>
       </c>
       <c r="G42" s="18">
-        <v>689455</v>
+        <v>828116</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,19 +1812,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>33052</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,19 +1835,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>25774</v>
+        <v>33052</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1816,16 +1858,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>24999</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1839,19 +1881,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,19 +1904,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1885,16 +1927,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1908,16 +1950,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1931,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1954,16 +1996,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -1977,19 +2019,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2000,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2023,16 +2065,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2046,19 +2088,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2069,16 +2111,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F56" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2092,19 +2134,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>25774</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2115,19 +2157,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F58" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2138,19 +2180,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F59" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2161,16 +2203,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G60" s="18">
         <v>737717</v>
@@ -2184,19 +2226,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="F61" s="18">
-        <v>25774</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2207,19 +2249,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>24999</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2230,19 +2272,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2253,16 +2295,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2276,16 +2318,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F65" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2299,19 +2341,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2322,19 +2364,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
       </c>
       <c r="G67" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2345,13 +2387,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2368,19 +2410,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
       </c>
       <c r="G69" s="18">
-        <v>700455</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2391,19 +2433,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
       </c>
       <c r="G70" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2414,13 +2456,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2437,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2460,19 +2502,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2483,19 +2525,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2506,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2529,19 +2571,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
       </c>
       <c r="G76" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2552,16 +2594,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F77" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2575,16 +2617,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F78" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2598,19 +2640,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F79" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G79" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2621,19 +2663,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F80" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G80" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2644,16 +2686,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F81" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2667,16 +2709,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F82" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2690,19 +2732,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F83" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G83" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2713,16 +2755,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F84" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2736,19 +2778,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F85" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G85" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2759,19 +2801,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F86" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G86" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2782,16 +2824,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F87" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2805,19 +2847,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F88" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G88" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2828,16 +2870,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="F89" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2851,19 +2893,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="F90" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G90" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2874,16 +2916,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F91" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2897,19 +2939,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G92" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2920,19 +2962,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G93" s="18">
-        <v>929110</v>
+        <v>781242</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2943,16 +2985,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -2966,16 +3008,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -2989,19 +3031,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G96" s="18">
-        <v>929110</v>
+        <v>781242</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3012,19 +3054,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G97" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3035,19 +3077,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="F98" s="18">
-        <v>24999</v>
+        <v>25774</v>
       </c>
       <c r="G98" s="18">
-        <v>929110</v>
+        <v>781242</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3058,75 +3100,1340 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F99" s="18">
-        <v>24999</v>
+        <v>25774</v>
       </c>
       <c r="G99" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="22" t="s">
+      <c r="B100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="18">
+        <v>25774</v>
+      </c>
+      <c r="G100" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="20"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B101" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="18">
+        <v>25774</v>
+      </c>
+      <c r="G101" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="20"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B102" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F102" s="18">
+        <v>25774</v>
+      </c>
+      <c r="G102" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="20"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="18">
+        <v>22063</v>
+      </c>
+      <c r="G103" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="20"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B104" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F104" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G104" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="20"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G105" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="20"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G106" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="20"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F107" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G107" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="20"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G108" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="20"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G109" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="20"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F110" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G110" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="20"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F111" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G111" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="20"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B112" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G112" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="20"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B113" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G113" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="20"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B114" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F114" s="18">
+        <v>27578</v>
+      </c>
+      <c r="G114" s="18">
+        <v>781242</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="20"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B115" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="18">
+        <v>24999</v>
+      </c>
+      <c r="G115" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="20"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B116" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G116" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="20"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B117" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G117" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="20"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B118" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G118" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="20"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B119" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G119" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="20"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B120" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F120" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G120" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="20"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B121" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G121" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="20"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G122" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F123" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G123" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F124" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G124" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F125" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G125" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F126" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G126" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G127" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F128" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G128" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G129" s="18">
+        <v>828116</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="18">
+        <v>24999</v>
+      </c>
+      <c r="G130" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F131" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G131" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G132" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G133" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G134" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F135" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G135" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G136" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F137" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G137" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G138" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G139" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F140" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G140" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F141" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G141" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F142" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G142" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F143" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G143" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="18">
+        <v>31249</v>
+      </c>
+      <c r="G144" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F145" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G145" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G146" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F147" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G147" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F148" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G148" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F149" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G149" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F150" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G150" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F151" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G151" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E152" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F100" s="24">
-        <v>24999</v>
-      </c>
-      <c r="G100" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="26"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C105" s="32"/>
-      <c r="H105" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C106" s="32"/>
-      <c r="H106" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="F152" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G152" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G153" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F154" s="18">
+        <v>29509</v>
+      </c>
+      <c r="G154" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D155" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E155" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F155" s="24">
+        <v>29509</v>
+      </c>
+      <c r="G155" s="24">
+        <v>737717</v>
+      </c>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="26"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C160" s="32"/>
+      <c r="H160" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" s="32"/>
+      <c r="H161" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="H161:J161"/>
+    <mergeCell ref="H160:J160"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004337397.xlsx
+++ b/Data/EC/NIT-9004337397.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC50647-8E93-4D6C-AB47-5B171C525DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7681AC2A-1A94-41D0-BB1E-EE9327F6F74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D24A4B5D-A9C5-47B4-9A3F-062C963AC7BD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C968A6F5-0216-4F4F-9270-D58934D423CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="71">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,199 +65,157 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73577529</t>
-  </si>
-  <si>
-    <t>DAIVER JAVIER ARROYO BUENDIA</t>
+    <t>1065656742</t>
+  </si>
+  <si>
+    <t>JEAN CARLOS OSPINA ARRIETA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1143359001</t>
+  </si>
+  <si>
+    <t>LENYS PAOLA MARTINEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>45561767</t>
+  </si>
+  <si>
+    <t>CARMENZA DURANGO FUENTES</t>
+  </si>
+  <si>
+    <t>1050958200</t>
+  </si>
+  <si>
+    <t>RAFAEL EDUARDO SANCHEZ MONTES</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1143375094</t>
+  </si>
+  <si>
+    <t>JESUS DAVID VILLAMIL ESCOBAR</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
   </si>
   <si>
     <t>1809</t>
   </si>
   <si>
-    <t>1143359001</t>
-  </si>
-  <si>
-    <t>LENYS PAOLA MARTINEZ GONZALEZ</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>45561767</t>
-  </si>
-  <si>
-    <t>CARMENZA DURANGO FUENTES</t>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
   </si>
   <si>
     <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>73163158</t>
-  </si>
-  <si>
-    <t>ROGELIO CONTRERAS LUNA</t>
-  </si>
-  <si>
-    <t>1050958200</t>
-  </si>
-  <si>
-    <t>RAFAEL EDUARDO SANCHEZ MONTES</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1143376797</t>
-  </si>
-  <si>
-    <t>EMIRO RAFAEL LOPEZ LARA</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1050035791</t>
-  </si>
-  <si>
-    <t>YEIMY KATERINE CHAMORRO OLIVERA</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1128048855</t>
-  </si>
-  <si>
-    <t>OLGA PATRICIA MATUTE PICAZA</t>
-  </si>
-  <si>
-    <t>1065656742</t>
-  </si>
-  <si>
-    <t>JEAN CARLOS OSPINA ARRIETA</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>73133039</t>
-  </si>
-  <si>
-    <t>HERVES RUBEN OCHOA BUELVAS</t>
-  </si>
-  <si>
-    <t>9148611</t>
-  </si>
-  <si>
-    <t>GUSTAVO JOSE ROMERO VILLAMIL</t>
-  </si>
-  <si>
-    <t>1143375094</t>
-  </si>
-  <si>
-    <t>JESUS DAVID VILLAMIL ESCOBAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -356,7 +314,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -369,9 +329,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -571,23 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,10 +573,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +629,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AC86050-8026-4DB1-05B1-3210CCD22190}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E257873-E0A9-BC02-D682-E3EDBA8CE06E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,8 +980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BADD15C-7FDC-4134-A4E0-857565CF3A9F}">
-  <dimension ref="B2:J161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2459EEBD-3076-4C8B-AC14-F5A99AEEB7CA}">
+  <dimension ref="B2:J106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1034,7 +992,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1047,7 +1005,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1092,7 +1050,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1124,12 +1082,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4075942</v>
+        <v>2444585</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1140,14 +1098,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5">
         <v>41</v>
@@ -1177,13 +1135,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1200,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1214,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1237,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F18" s="18">
-        <v>28019</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1260,16 +1218,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>28019</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1283,19 +1241,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F20" s="18">
-        <v>24999</v>
+        <v>28019</v>
       </c>
       <c r="G20" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1306,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>37164</v>
       </c>
       <c r="G21" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1329,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1352,19 +1310,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F23" s="18">
-        <v>37164</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1375,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
-        <v>37164</v>
+        <v>28019</v>
       </c>
       <c r="G24" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1398,19 +1356,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F25" s="18">
-        <v>23607</v>
+        <v>37164</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1421,19 +1379,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F26" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1444,19 +1402,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F27" s="18">
-        <v>29509</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1467,19 +1425,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>27578</v>
       </c>
       <c r="G28" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1490,19 +1448,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F29" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1513,19 +1471,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1536,19 +1494,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F31" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1559,19 +1517,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>27578</v>
       </c>
       <c r="G32" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1582,19 +1540,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1605,19 +1563,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>27578</v>
       </c>
       <c r="G34" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1628,19 +1586,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1651,19 +1609,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>27578</v>
       </c>
       <c r="G36" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1674,19 +1632,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1697,19 +1655,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>26441</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1720,19 +1678,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>33052</v>
+        <v>25774</v>
       </c>
       <c r="G39" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1743,19 +1701,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
-        <v>33052</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1766,19 +1724,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>33052</v>
+        <v>25774</v>
       </c>
       <c r="G41" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1789,19 +1747,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
-        <v>33052</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1812,19 +1770,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>33052</v>
+        <v>25774</v>
       </c>
       <c r="G43" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1835,19 +1793,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
-        <v>33052</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
-        <v>828116</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1858,16 +1816,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F45" s="18">
-        <v>24999</v>
+        <v>25774</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1881,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1904,16 +1862,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1927,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>35</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1950,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1973,16 +1931,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1996,16 +1954,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2019,16 +1977,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2042,16 +2000,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2065,16 +2023,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2088,16 +2046,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2111,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2134,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F57" s="18">
         <v>25774</v>
@@ -2157,19 +2115,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F58" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2180,19 +2138,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F59" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2203,19 +2161,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F60" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2226,19 +2184,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F61" s="18">
-        <v>27578</v>
+        <v>25774</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2249,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F62" s="18">
-        <v>24999</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2272,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2295,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2318,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F65" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2341,16 +2299,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F66" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2364,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2387,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2410,13 +2368,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2433,13 +2391,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2456,13 +2414,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2479,13 +2437,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2502,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2525,13 +2483,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>50</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2548,13 +2506,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>51</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2571,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2594,16 +2552,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E77" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="F77" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G77" s="18">
         <v>781242</v>
@@ -2617,16 +2575,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F78" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G78" s="18">
         <v>781242</v>
@@ -2640,16 +2598,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G79" s="18">
         <v>781242</v>
@@ -2663,16 +2621,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F80" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G80" s="18">
         <v>781242</v>
@@ -2686,16 +2644,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F81" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G81" s="18">
         <v>781242</v>
@@ -2709,16 +2667,16 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F82" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G82" s="18">
         <v>781242</v>
@@ -2732,16 +2690,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2755,16 +2713,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F84" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2778,16 +2736,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F85" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2801,16 +2759,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F86" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2824,16 +2782,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F87" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2847,16 +2805,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F88" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2870,16 +2828,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F89" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2893,16 +2851,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F90" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2916,16 +2874,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F91" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2939,16 +2897,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F92" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2962,16 +2920,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F93" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2985,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3008,16 +2966,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="F95" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3031,16 +2989,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3054,16 +3012,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3077,16 +3035,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F98" s="18">
-        <v>25774</v>
+        <v>24999</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3100,16 +3058,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>24999</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3119,1321 +3077,56 @@
       <c r="J99" s="20"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B100" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F100" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G100" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B101" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G101" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B102" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E102" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F102" s="18">
-        <v>25774</v>
-      </c>
-      <c r="G102" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B103" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="16" t="s">
+      <c r="B100" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="24">
+        <v>24999</v>
+      </c>
+      <c r="G100" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="26"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B105" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="32"/>
+      <c r="H105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B106" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" s="18">
-        <v>22063</v>
-      </c>
-      <c r="G103" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B104" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G104" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B105" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D105" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F105" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G105" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B106" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F106" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G106" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B107" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F107" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G107" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B108" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G108" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B109" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G109" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B110" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E110" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F110" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G110" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E111" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G111" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B112" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F112" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G112" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B113" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F113" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G113" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B114" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F114" s="18">
-        <v>27578</v>
-      </c>
-      <c r="G114" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B115" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115" s="16" t="s">
+      <c r="C106" s="32"/>
+      <c r="H106" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D115" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" s="18">
-        <v>24999</v>
-      </c>
-      <c r="G115" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B116" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G116" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B117" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F117" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G117" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B118" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D118" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F118" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G118" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B119" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E119" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G119" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B120" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E120" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F120" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G120" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B121" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E121" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G121" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G122" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F123" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G123" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F124" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G124" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F125" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G125" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F126" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G126" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F127" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G127" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F128" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G128" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F129" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G129" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F130" s="18">
-        <v>24999</v>
-      </c>
-      <c r="G130" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G131" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F132" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G132" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E133" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F133" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G133" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G134" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G135" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F136" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G136" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F137" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G137" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F138" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G138" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F139" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G139" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F140" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G140" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F141" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G141" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F142" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G142" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F143" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G143" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F144" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G144" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F145" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G145" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F146" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G146" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F147" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G147" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F148" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G148" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F149" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G149" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F150" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G150" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F151" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G151" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F152" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G152" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F153" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G153" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F154" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G154" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D155" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E155" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F155" s="24">
-        <v>29509</v>
-      </c>
-      <c r="G155" s="24">
-        <v>737717</v>
-      </c>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="26"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C160" s="32"/>
-      <c r="H160" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B161" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C161" s="32"/>
-      <c r="H161" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="H161:J161"/>
-    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H105:J105"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
